--- a/KeywordGradle/src/resources/DataEngine.xlsx
+++ b/KeywordGradle/src/resources/DataEngine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BBDAEE-24B7-47ED-B7D0-5E488EA429D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942BFDA6-D6FB-43FE-BA73-742812F5C226}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="7512" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Learn123$</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>chutiya</t>
   </si>
 </sst>
 </file>
@@ -751,7 +757,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +898,9 @@
       <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
@@ -905,7 +913,9 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -925,14 +935,23 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -942,9 +961,15 @@
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -953,9 +978,15 @@
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
@@ -964,9 +995,15 @@
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
@@ -975,8 +1012,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -1001,13 +1042,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{525C028F-802E-4649-A9B6-8EE971963038}">
       <formula1>$G$2:$G$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D7 D9:D1048576" xr:uid="{55DF02BC-A63D-46B6-96C0-5B46CAD70E57}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D7 D9:D14 D16:D1048576" xr:uid="{55DF02BC-A63D-46B6-96C0-5B46CAD70E57}">
       <formula1>$H$2:$H$5</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{E0CB1CAB-7830-41D6-8015-9E7FD24FFB0F}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{C8E5F2E1-FC97-42B4-88C3-D51AC05FD4E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>